--- a/report/googleform_results.xlsx
+++ b/report/googleform_results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lionel\Documents\Uni\Info\FUI\EAT\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C46D3-DCDD-4B7F-97ED-7277D3582C60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -230,7 +231,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -331,7 +331,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -362,6 +361,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3649-4898-8636-4BC50D368D64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -427,7 +431,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -458,6 +461,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3649-4898-8636-4BC50D368D64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -523,7 +531,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -554,6 +561,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3649-4898-8636-4BC50D368D64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -619,7 +631,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -650,6 +661,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3649-4898-8636-4BC50D368D64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -715,7 +731,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -746,6 +761,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3649-4898-8636-4BC50D368D64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -818,7 +838,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -886,7 +905,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -925,7 +944,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1026,7 +1044,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1057,6 +1074,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EF3-4309-9460-76192ED98F46}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1122,7 +1144,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1153,6 +1174,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EF3-4309-9460-76192ED98F46}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1218,7 +1244,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1249,6 +1274,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EF3-4309-9460-76192ED98F46}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1314,7 +1344,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1345,6 +1374,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EF3-4309-9460-76192ED98F46}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1410,7 +1444,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1441,6 +1474,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EF3-4309-9460-76192ED98F46}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -1513,7 +1551,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1581,7 +1618,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1621,7 +1658,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,7 +1758,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1753,6 +1788,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-214E-49AD-924A-565598E5F891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1818,7 +1858,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1849,6 +1888,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-214E-49AD-924A-565598E5F891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1914,7 +1958,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1945,6 +1988,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-214E-49AD-924A-565598E5F891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2010,7 +2058,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2041,6 +2088,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-214E-49AD-924A-565598E5F891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2106,7 +2158,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2137,6 +2188,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-214E-49AD-924A-565598E5F891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -2209,7 +2265,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2277,7 +2332,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2290,7 +2345,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Which</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> system did you prefer</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2312,6 +2427,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-09CC-442E-9104-124EF1BC1144}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2327,6 +2447,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-09CC-442E-9104-124EF1BC1144}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2342,6 +2467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-09CC-442E-9104-124EF1BC1144}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2396,9 +2526,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2436,6 +2564,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-09CC-442E-9104-124EF1BC1144}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="bestFit"/>
@@ -2459,7 +2592,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2527,7 +2659,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2575,7 +2707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2627,6 +2758,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8E14-4546-89A6-CA38143A378D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2642,6 +2778,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8E14-4546-89A6-CA38143A378D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2657,6 +2798,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8E14-4546-89A6-CA38143A378D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2711,9 +2857,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2751,6 +2895,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8E14-4546-89A6-CA38143A378D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="bestFit"/>
@@ -2774,7 +2923,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2842,7 +2990,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2890,7 +3038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2942,6 +3089,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1422-4783-B32A-C59ACC5036D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2957,6 +3109,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1422-4783-B32A-C59ACC5036D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3011,9 +3168,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3045,6 +3200,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1422-4783-B32A-C59ACC5036D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="bestFit"/>
@@ -3068,7 +3228,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6458,7 +6617,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6488,7 +6653,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6520,7 +6691,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6540,19 +6717,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>300037</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6582,7 +6765,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6612,7 +6801,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6892,15 +7087,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
